--- a/GPT_labeling/prompt-comparison-results.xlsx
+++ b/GPT_labeling/prompt-comparison-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annalieb/Documents/Thesis/Senior-Thesis/GPT_label_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annalieb/Documents/Thesis/Senior-Thesis/GPT_labeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADC2254-FBB5-9045-BB4B-B3D16F50E274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F10377-9D03-FC49-AC93-9DED61F84261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="740" windowWidth="28040" windowHeight="17240" activeTab="1" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
+    <workbookView xWindow="8760" yWindow="9280" windowWidth="28040" windowHeight="17240" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>augmentation</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>3 contested examples</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -411,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC5BDC4-8E72-AD46-BB16-EE1C2B121936}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,6 +437,9 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -455,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6A9FF9-DD24-9948-BDE4-FAC7106C6C51}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,6 +485,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/GPT_labeling/prompt-comparison-results.xlsx
+++ b/GPT_labeling/prompt-comparison-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annalieb/Documents/Thesis/Senior-Thesis/GPT_labeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F10377-9D03-FC49-AC93-9DED61F84261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4284060D-77ED-3B42-8462-C53F50ED7694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="9280" windowWidth="28040" windowHeight="17240" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
+    <workbookView xWindow="2860" yWindow="740" windowWidth="23600" windowHeight="17240" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -51,16 +51,16 @@
     <t>0 examples</t>
   </si>
   <si>
-    <t>6 examples</t>
+    <t>NA</t>
   </si>
   <si>
-    <t>3 uncontested examples</t>
+    <t>2 uncontested examples</t>
   </si>
   <si>
-    <t>3 contested examples</t>
+    <t>2 contested examples</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>4 (all) examples</t>
   </si>
 </sst>
 </file>
@@ -113,6 +113,2248 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>GPT-4 Performance for Actor</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>actor!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>actor!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0 examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 uncontested examples</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 contested examples</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 (all) examples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>actor!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68385111361628204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.325650264655582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60658447757729606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40EC-F142-B753-DC745A553B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>actor!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>intuitive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>actor!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0 examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 uncontested examples</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 contested examples</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 (all) examples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>actor!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.83389941918805999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87943578369918995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86549724323395505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86147448185652098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40EC-F142-B753-DC745A553B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2114366832"/>
+        <c:axId val="2114368560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2114366832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Few-shot Prompting Strategy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114368560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2114368560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weighted F-score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114366832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPT-4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Performance for Stance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stance!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>stance!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0 examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 uncontested examples</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 contested examples</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 (all) examples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stance!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70143136200594802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24402119847867901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52132773680794997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EABD-4347-8BE7-D4FBBCA0E8B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stance!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>intuitive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>stance!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0 examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 uncontested examples</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 contested examples</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 (all) examples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>stance!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.76816505328432605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77389106268859598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70946319867183105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75407622344659098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EABD-4347-8BE7-D4FBBCA0E8B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2114133872"/>
+        <c:axId val="2114800000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2114133872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Few-shot Prompting Strategy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114800000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2114800000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Weighted F-score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114133872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675BFC3F-70B9-C567-198B-85EA783BCB61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34721AAD-3742-4CD1-F231-F3269123D18F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,7 +2657,79 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0.68385111361628204</v>
+      </c>
+      <c r="D2">
+        <v>0.325650264655582</v>
+      </c>
+      <c r="E2">
+        <v>0.60658447757729606</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.83389941918805999</v>
+      </c>
+      <c r="C3">
+        <v>0.87943578369918995</v>
+      </c>
+      <c r="D3">
+        <v>0.86549724323395505</v>
+      </c>
+      <c r="E3">
+        <v>0.86147448185652098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6A9FF9-DD24-9948-BDE4-FAC7106C6C51}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="116" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -439,13 +2753,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>0.70143136200594802</v>
+      </c>
+      <c r="D2">
+        <v>0.24402119847867901</v>
+      </c>
+      <c r="E2">
+        <v>0.52132773680794997</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>0.76816505328432605</v>
+      </c>
+      <c r="C3">
+        <v>0.77389106268859598</v>
+      </c>
+      <c r="D3">
+        <v>0.70946319867183105</v>
+      </c>
+      <c r="E3">
+        <v>0.75407622344659098</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -454,52 +2789,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6A9FF9-DD24-9948-BDE4-FAC7106C6C51}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GPT_labeling/prompt-comparison-results.xlsx
+++ b/GPT_labeling/prompt-comparison-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annalieb/Documents/Thesis/Senior-Thesis/GPT_labeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4284060D-77ED-3B42-8462-C53F50ED7694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1870CAF1-768B-0749-9E51-6E4D51C52053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="740" windowWidth="23600" windowHeight="17240" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
+    <workbookView xWindow="1540" yWindow="740" windowWidth="23600" windowHeight="17240" activeTab="1" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -2656,8 +2656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC5BDC4-8E72-AD46-BB16-EE1C2B121936}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2728,8 +2728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6A9FF9-DD24-9948-BDE4-FAC7106C6C51}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/GPT_labeling/prompt-comparison-results.xlsx
+++ b/GPT_labeling/prompt-comparison-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annalieb/Documents/Thesis/Senior-Thesis/GPT_labeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1870CAF1-768B-0749-9E51-6E4D51C52053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7532F66-9569-DF44-AEB9-A4071E4CCC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="740" windowWidth="23600" windowHeight="17240" activeTab="1" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23600" windowHeight="17240" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>augmentation</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>4 (all) examples</t>
+  </si>
+  <si>
+    <t>Prompt includes examples only (no definition)</t>
+  </si>
+  <si>
+    <t>Prompt includes examples and definitions</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>baseline</c:v>
+                  <c:v>Prompt includes examples only (no definition)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -278,7 +284,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>intuitive</c:v>
+                  <c:v>Prompt includes examples and definitions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -647,6 +653,507 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>actor!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prompt includes examples only (no definition)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>actor!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0 examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 uncontested examples</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 contested examples</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 (all) examples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>actor!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68385111361628204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.325650264655582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60658447757729606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-420B-3149-B5A8-545A1DC4D678}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>actor!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prompt includes examples and definitions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>actor!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0 examples</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 uncontested examples</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2 contested examples</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 (all) examples</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>actor!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.83389941918805999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87943578369918995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86549724323395505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86147448185652098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-420B-3149-B5A8-545A1DC4D678}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2114366832"/>
+        <c:axId val="2114368560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2114366832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Few-shot</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> examples per class</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114368560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2114368560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Weighted F-score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2114366832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1269,6 +1776,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1773,6 +2320,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2308,6 +3358,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B29DC688-60F8-B745-BC07-770481F2DEC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2654,10 +3742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC5BDC4-8E72-AD46-BB16-EE1C2B121936}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2681,7 +3769,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2698,7 +3786,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.83389941918805999</v>
@@ -2713,11 +3801,6 @@
         <v>0.86147448185652098</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2728,7 +3811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6A9FF9-DD24-9948-BDE4-FAC7106C6C51}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/GPT_labeling/prompt-comparison-results.xlsx
+++ b/GPT_labeling/prompt-comparison-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annalieb/Documents/Thesis/Senior-Thesis/GPT_labeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7532F66-9569-DF44-AEB9-A4071E4CCC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1907BE3E-39D7-D349-8F36-118C04842CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23600" windowHeight="17240" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="23600" windowHeight="17240" activeTab="1" xr2:uid="{92BB175C-204B-7844-8714-001F5ACED15C}"/>
   </bookViews>
   <sheets>
     <sheet name="actor" sheetId="1" r:id="rId1"/>
@@ -37,16 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>augmentation</t>
-  </si>
-  <si>
-    <t>baseline</t>
-  </si>
-  <si>
-    <t>intuitive</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>0 examples</t>
   </si>
@@ -135,69 +126,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GPT-4 Performance for Actor</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1167,67 +1096,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>GPT-4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Performance for Stance</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1243,7 +1112,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>baseline</c:v>
+                  <c:v>Prompt includes examples only (no definition)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1314,7 +1183,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>intuitive</c:v>
+                  <c:v>Prompt includes examples and definitions</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3744,7 +3613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC5BDC4-8E72-AD46-BB16-EE1C2B121936}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3755,24 +3624,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.68385111361628204</v>
@@ -3786,7 +3655,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.83389941918805999</v>
@@ -3809,34 +3678,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6A9FF9-DD24-9948-BDE4-FAC7106C6C51}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.70143136200594802</v>
@@ -3850,7 +3719,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.76816505328432605</v>
@@ -3865,11 +3734,6 @@
         <v>0.75407622344659098</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
